--- a/tmplt/prices.xlsx
+++ b/tmplt/prices.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\paul\office_am\input_files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\paul\office_am\tmplt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E765E07-71EF-4CBA-80D8-6789691F5F05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5C69C89-0014-4A63-8EB4-459EDB5BE253}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4245" yWindow="4245" windowWidth="21645" windowHeight="12615" activeTab="1" xr2:uid="{E9B0D1CF-055D-458F-9D83-22A4CC44F7C9}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="1" xr2:uid="{E9B0D1CF-055D-458F-9D83-22A4CC44F7C9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sale" sheetId="1" r:id="rId1"/>
@@ -509,9 +509,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EA58851-7C5D-49BA-B537-9725AD1B2233}">
   <dimension ref="A1:E29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
